--- a/EigensystemComparison.xlsx
+++ b/EigensystemComparison.xlsx
@@ -469,52 +469,52 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="B4" t="n">
-        <v>1.44</v>
+        <v>1.79</v>
       </c>
       <c r="C4" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="E4" t="n">
-        <v>1.44</v>
+        <v>0.83</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>8.99</v>
+        <v>7.53</v>
       </c>
       <c r="H4" t="n">
-        <v>2.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.44</v>
+        <v>1.79</v>
       </c>
       <c r="B5" t="n">
-        <v>3.09</v>
+        <v>2.34</v>
       </c>
       <c r="C5" t="n">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="E5" t="n">
-        <v>1.92</v>
+        <v>1.29</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
@@ -529,101 +529,101 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="B6" t="n">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="C6" t="n">
-        <v>2.92</v>
+        <v>2.27</v>
       </c>
       <c r="D6" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.72</v>
+        <v>0.92</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="J6" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="B7" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="C7" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.25</v>
+        <v>1.41</v>
       </c>
       <c r="E7" t="n">
-        <v>1.85</v>
+        <v>0.91</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.19</v>
+        <v>-0.33</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="I7" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.51</v>
       </c>
-      <c r="J7" t="n">
-        <v>-0.46</v>
-      </c>
       <c r="K7" t="n">
-        <v>-0.58</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.44</v>
+        <v>0.83</v>
       </c>
       <c r="B8" t="n">
-        <v>1.92</v>
+        <v>1.29</v>
       </c>
       <c r="C8" t="n">
-        <v>1.72</v>
+        <v>0.92</v>
       </c>
       <c r="D8" t="n">
-        <v>1.85</v>
+        <v>0.91</v>
       </c>
       <c r="E8" t="n">
-        <v>3.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.47</v>
+        <v>-0.26</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.63</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.36</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="9">
@@ -634,19 +634,19 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.73</v>
+        <v>0.83</v>
       </c>
       <c r="H9" t="n">
-        <v>0.62</v>
+        <v>-0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.17</v>
+        <v>-0.5</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +657,19 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.39</v>
+        <v>0.02</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.05</v>
+        <v>-0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="J10" t="n">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.45</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="11">
@@ -688,7 +688,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -708,52 +708,52 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.28</v>
+        <v>0.15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.97</v>
+        <v>0.16</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.33</v>
+        <v>-0.09</v>
       </c>
       <c r="E13" t="n">
-        <v>1.26</v>
+        <v>-0.04</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>8.99</v>
+        <v>7.53</v>
       </c>
       <c r="H13" t="n">
-        <v>2.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="B14" t="n">
-        <v>1.23</v>
+        <v>4.3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03</v>
+        <v>-2.45</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.49</v>
+        <v>-0.67</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05</v>
+        <v>-2.67</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
@@ -768,101 +768,101 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.97</v>
+        <v>0.16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03</v>
+        <v>-2.45</v>
       </c>
       <c r="C15" t="n">
-        <v>2.23</v>
+        <v>1.59</v>
       </c>
       <c r="D15" t="n">
-        <v>1.72</v>
+        <v>0.19</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.49</v>
+        <v>1.34</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.39</v>
+        <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>-0.75</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.34</v>
+        <v>0.43</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.73</v>
+        <v>0.12</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.33</v>
+        <v>-0.09</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.49</v>
+        <v>-0.67</v>
       </c>
       <c r="C16" t="n">
-        <v>1.72</v>
+        <v>0.19</v>
       </c>
       <c r="D16" t="n">
-        <v>5.48</v>
+        <v>0.43</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.34</v>
+        <v>0.52</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4</v>
+        <v>-0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.46</v>
+        <v>-0.51</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.58</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.26</v>
+        <v>-0.04</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.05</v>
+        <v>-2.67</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.49</v>
+        <v>1.34</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.34</v>
+        <v>0.52</v>
       </c>
       <c r="E17" t="n">
-        <v>2.96</v>
+        <v>2.09</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="H17" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.63</v>
+        <v>0.52</v>
       </c>
       <c r="J17" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.36</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
@@ -873,19 +873,19 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.62</v>
+        <v>-0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>0.17</v>
+        <v>-0.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -896,19 +896,258 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>-0.35</v>
+        <v>-0.06</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.49</v>
+        <v>0.26</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.36</v>
+        <v>-0.76</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Eigenvalues</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Eigenvectors</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>

--- a/EigensystemComparison.xlsx
+++ b/EigensystemComparison.xlsx
@@ -469,52 +469,52 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.61</v>
+        <v>2.96</v>
       </c>
       <c r="B4" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="C4" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="D4" t="n">
-        <v>1.15</v>
+        <v>0.31</v>
       </c>
       <c r="E4" t="n">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>7.53</v>
+        <v>7.49</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="B5" t="n">
-        <v>2.34</v>
+        <v>3.33</v>
       </c>
       <c r="C5" t="n">
-        <v>2.13</v>
+        <v>1.58</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>0.96</v>
       </c>
       <c r="E5" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
@@ -529,101 +529,101 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="B6" t="n">
-        <v>2.13</v>
+        <v>1.58</v>
       </c>
       <c r="C6" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="D6" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="E6" t="n">
-        <v>0.92</v>
+        <v>1.1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.44</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.52</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.15</v>
+        <v>0.31</v>
       </c>
       <c r="B7" t="n">
-        <v>1.58</v>
+        <v>0.96</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="D7" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="E7" t="n">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.33</v>
+        <v>-0.49</v>
       </c>
       <c r="H7" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.55</v>
+        <v>-0.31</v>
       </c>
       <c r="J7" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="K7" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="B8" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="C8" t="n">
-        <v>0.92</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.06</v>
+        <v>0.41</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.26</v>
+        <v>-0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
       <c r="J8" t="n">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.59</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -634,19 +634,19 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2</v>
+        <v>-0.41</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5</v>
+        <v>0.22</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06</v>
+        <v>0.62</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="10">
@@ -657,497 +657,19 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>-0.4</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.75</v>
+        <v>-0.51</v>
       </c>
       <c r="I10" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="J10" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="K10" t="n">
         <v>0.49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Eigenvalues</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-2.45</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-2.67</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Eigenvectors</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-2.45</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-2.67</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Eigenvalues</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.45</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-2.67</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Eigenvectors</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-2.45</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-2.67</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.59</v>
       </c>
     </row>
   </sheetData>
